--- a/data/han/수질/춘성교_2020.xlsx
+++ b/data/han/수질/춘성교_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\han\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="136">
   <si>
     <t>dt</t>
   </si>
@@ -420,84 +427,37 @@
   </si>
   <si>
     <t>20200729</t>
-  </si>
-  <si>
-    <t>2020-08-06 12:00</t>
-  </si>
-  <si>
-    <t>20200803</t>
-  </si>
-  <si>
-    <t>2020-08-12 12:00</t>
-  </si>
-  <si>
-    <t>20200810</t>
-  </si>
-  <si>
-    <t>2020-08-18 12:00</t>
-  </si>
-  <si>
-    <t>20200820</t>
-  </si>
-  <si>
-    <t>2020-08-24 12:00</t>
-  </si>
-  <si>
-    <t>20200826</t>
-  </si>
-  <si>
-    <t>2020-09-05 12:00</t>
-  </si>
-  <si>
-    <t>20200902</t>
-  </si>
-  <si>
-    <t>2020-09-10 12:00</t>
-  </si>
-  <si>
-    <t>20200909</t>
-  </si>
-  <si>
-    <t>2020-09-15 12:00</t>
-  </si>
-  <si>
-    <t>20200917</t>
-  </si>
-  <si>
-    <t>2020-09-20 12:00</t>
-  </si>
-  <si>
-    <t>20200923</t>
-  </si>
-  <si>
-    <t>2020-09-25 12:00</t>
-  </si>
-  <si>
-    <t>20200928</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -515,7 +475,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,17 +489,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -542,10 +516,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -791,83 +765,81 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD40"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.89" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1132,7 +1104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1209,13 +1181,13 @@
         <v>76</v>
       </c>
       <c r="AC3" s="4">
-        <v>0.070000000000000007</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD3" s="5">
         <v>1.536</v>
       </c>
       <c r="AE3" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF3">
         <v>3</v>
@@ -1224,10 +1196,10 @@
         <v>107</v>
       </c>
       <c r="AH3" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI3" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ3" s="6">
         <v>14.5</v>
@@ -1236,31 +1208,31 @@
         <v>1.738</v>
       </c>
       <c r="AL3" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AM3" s="5">
         <v>115.999</v>
       </c>
       <c r="AN3" s="6">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AO3" s="6">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AP3" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ3" s="5">
         <v>1.6930000000000001</v>
       </c>
       <c r="AR3" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1337,7 +1309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1491,7 +1463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1568,7 +1540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -1645,22 +1617,22 @@
         <v>88</v>
       </c>
       <c r="AC8" s="5">
-        <v>0.098000000000000004</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AD8" s="4">
-        <v>1.3500000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="AE8" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF8" s="6">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG8">
         <v>102</v>
       </c>
       <c r="AH8" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI8" s="6">
         <v>3.5</v>
@@ -1672,7 +1644,7 @@
         <v>1.6830000000000001</v>
       </c>
       <c r="AL8" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM8" s="5">
         <v>108.22799999999999</v>
@@ -1684,19 +1656,19 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AP8" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ8" s="5">
         <v>1.641</v>
       </c>
       <c r="AR8" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS8" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1773,7 +1745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1850,7 +1822,7 @@
         <v>92</v>
       </c>
       <c r="AC10" s="5">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AD10" s="6">
         <v>1.3</v>
@@ -1865,10 +1837,10 @@
         <v>103</v>
       </c>
       <c r="AH10" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI10" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ10" s="6">
         <v>13.1</v>
@@ -1877,7 +1849,7 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="AL10" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM10" s="5">
         <v>98.402000000000001</v>
@@ -1886,19 +1858,19 @@
         <v>6</v>
       </c>
       <c r="AP10" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ10" s="5">
         <v>1.518</v>
       </c>
       <c r="AR10" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS10" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1975,16 +1947,16 @@
         <v>94</v>
       </c>
       <c r="AC11" s="5">
-        <v>0.045999999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AD11" s="5">
         <v>1.272</v>
       </c>
       <c r="AE11" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF11" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG11">
         <v>109</v>
@@ -1993,22 +1965,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI11" s="6">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AJ11" s="6">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AK11" s="5">
         <v>1.548</v>
       </c>
       <c r="AL11" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM11" s="5">
         <v>92.343000000000004</v>
       </c>
       <c r="AN11" s="6">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="AO11" s="6">
         <v>9.3000000000000007</v>
@@ -2020,13 +1992,13 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="AR11" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS11" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2103,16 +2075,16 @@
         <v>96</v>
       </c>
       <c r="AC12" s="5">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD12" s="5">
         <v>1.175</v>
       </c>
       <c r="AE12" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF12" s="6">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG12">
         <v>103</v>
@@ -2121,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="AI12" s="6">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ12" s="6">
         <v>13.1</v>
@@ -2136,22 +2108,22 @@
         <v>90.221000000000004</v>
       </c>
       <c r="AN12" s="6">
-        <v>6.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="AP12" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ12" s="5">
         <v>1.381</v>
       </c>
       <c r="AR12" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2228,16 +2200,16 @@
         <v>98</v>
       </c>
       <c r="AC13" s="5">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD13" s="5">
         <v>1.254</v>
       </c>
       <c r="AE13" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF13" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AG13">
         <v>101</v>
@@ -2246,7 +2218,7 @@
         <v>1.5</v>
       </c>
       <c r="AI13" s="6">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="AJ13" s="6">
         <v>12.1</v>
@@ -2255,28 +2227,28 @@
         <v>1.4890000000000001</v>
       </c>
       <c r="AL13" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM13" s="5">
         <v>81.722999999999999</v>
       </c>
       <c r="AN13" s="6">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AP13" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ13" s="4">
-        <v>1.3899999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AR13" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS13" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2353,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="AC14" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD14" s="5">
         <v>1.2130000000000001</v>
@@ -2362,7 +2334,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF14" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG14">
         <v>97</v>
@@ -2371,7 +2343,7 @@
         <v>1.5</v>
       </c>
       <c r="AI14" s="6">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ14" s="6">
         <v>11.9</v>
@@ -2380,7 +2352,7 @@
         <v>1.464</v>
       </c>
       <c r="AL14" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM14" s="5">
         <v>115.85899999999999</v>
@@ -2389,19 +2361,19 @@
         <v>11.6</v>
       </c>
       <c r="AP14" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ14" s="5">
         <v>1.389</v>
       </c>
       <c r="AR14" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS14" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -2478,7 +2450,7 @@
         <v>102</v>
       </c>
       <c r="AC15" s="5">
-        <v>0.050999999999999997</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AD15" s="5">
         <v>1.2150000000000001</v>
@@ -2496,37 +2468,37 @@
         <v>1.2</v>
       </c>
       <c r="AI15" s="6">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="AJ15" s="6">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK15" s="5">
         <v>1.552</v>
       </c>
       <c r="AL15" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AM15" s="4">
-        <v>67.060000000000002</v>
+        <v>67.06</v>
       </c>
       <c r="AN15" s="6">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AP15" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ15" s="4">
         <v>1.47</v>
       </c>
       <c r="AR15" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS15" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2603,7 +2575,7 @@
         <v>104</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AD16" s="5">
         <v>1.254</v>
@@ -2612,25 +2584,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF16" s="6">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AG16">
         <v>101</v>
       </c>
       <c r="AH16" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AI16" s="6">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AJ16" s="6">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AK16" s="5">
         <v>1.397</v>
       </c>
       <c r="AL16" s="5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM16" s="5">
         <v>38.290999999999997</v>
@@ -2642,19 +2614,19 @@
         <v>16.100000000000001</v>
       </c>
       <c r="AP16" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ16" s="5">
         <v>1.339</v>
       </c>
       <c r="AR16" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS16" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2731,7 +2703,7 @@
         <v>106</v>
       </c>
       <c r="AC17" s="5">
-        <v>0.068000000000000005</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AD17" s="5">
         <v>1.2010000000000001</v>
@@ -2740,7 +2712,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF17" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG17">
         <v>100</v>
@@ -2749,7 +2721,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI17" s="6">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AJ17" s="6">
         <v>11.6</v>
@@ -2758,28 +2730,28 @@
         <v>1.405</v>
       </c>
       <c r="AL17" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM17" s="5">
         <v>86.134</v>
       </c>
       <c r="AN17" s="6">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AP17" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ17" s="5">
         <v>1.373</v>
       </c>
       <c r="AR17" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS17" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2856,10 +2828,10 @@
         <v>109</v>
       </c>
       <c r="AC18" s="5">
-        <v>0.056000000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AD18" s="4">
-        <v>1.0800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AE18" s="6">
         <v>8.1999999999999993</v>
@@ -2883,7 +2855,7 @@
         <v>1.4319999999999999</v>
       </c>
       <c r="AL18" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM18" s="5">
         <v>75.177000000000007</v>
@@ -2898,13 +2870,13 @@
         <v>1.345</v>
       </c>
       <c r="AR18" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2981,7 +2953,7 @@
         <v>111</v>
       </c>
       <c r="AC19" s="4">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AD19" s="5">
         <v>1.079</v>
@@ -2990,7 +2962,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF19" s="6">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AG19">
         <v>98</v>
@@ -2999,7 +2971,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI19" s="6">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AJ19" s="6">
         <v>11.9</v>
@@ -3008,7 +2980,7 @@
         <v>1.292</v>
       </c>
       <c r="AL19" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM19" s="5">
         <v>91.091999999999999</v>
@@ -3017,19 +2989,19 @@
         <v>16.5</v>
       </c>
       <c r="AP19" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ19" s="5">
         <v>1.248</v>
       </c>
       <c r="AR19" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS19" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3106,16 +3078,16 @@
         <v>113</v>
       </c>
       <c r="AC20" s="5">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD20" s="5">
         <v>0.996</v>
       </c>
       <c r="AE20" s="6">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF20" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG20">
         <v>99</v>
@@ -3124,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AI20" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AJ20" s="6">
         <v>12.4</v>
@@ -3133,31 +3105,31 @@
         <v>1.2549999999999999</v>
       </c>
       <c r="AL20" s="5">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM20" s="5">
         <v>43.262</v>
       </c>
       <c r="AN20" s="6">
-        <v>15.300000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="AO20" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AP20" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ20" s="5">
         <v>1.196</v>
       </c>
       <c r="AR20" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS20" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -3234,7 +3206,7 @@
         <v>115</v>
       </c>
       <c r="AC21" s="5">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD21" s="5">
         <v>1.2989999999999999</v>
@@ -3243,7 +3215,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF21" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG21">
         <v>104</v>
@@ -3255,34 +3227,34 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AJ21" s="6">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AK21" s="5">
         <v>1.6180000000000001</v>
       </c>
       <c r="AL21" s="5">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AM21" s="5">
         <v>21.957999999999998</v>
       </c>
       <c r="AN21" s="6">
-        <v>15.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AP21" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ21" s="5">
         <v>1.534</v>
       </c>
       <c r="AR21" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS21" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -3359,16 +3331,16 @@
         <v>117</v>
       </c>
       <c r="AC22" s="5">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD22" s="5">
         <v>1.111</v>
       </c>
       <c r="AE22" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF22" s="6">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AG22">
         <v>113</v>
@@ -3377,16 +3349,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI22" s="6">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AJ22" s="6">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK22" s="5">
         <v>1.3660000000000001</v>
       </c>
       <c r="AL22" s="5">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM22" s="5">
         <v>54.445</v>
@@ -3395,19 +3367,19 @@
         <v>17</v>
       </c>
       <c r="AP22" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ22" s="5">
         <v>1.296</v>
       </c>
       <c r="AR22" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS22" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -3484,16 +3456,16 @@
         <v>119</v>
       </c>
       <c r="AC23" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD23" s="5">
         <v>1.0329999999999999</v>
       </c>
       <c r="AE23" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF23" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG23">
         <v>110</v>
@@ -3502,16 +3474,16 @@
         <v>1.3</v>
       </c>
       <c r="AI23" s="6">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AJ23" s="6">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AK23" s="5">
         <v>1.2370000000000001</v>
       </c>
       <c r="AL23" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM23" s="5">
         <v>51.716000000000001</v>
@@ -3520,19 +3492,19 @@
         <v>18.600000000000001</v>
       </c>
       <c r="AP23" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ23" s="5">
         <v>1.1739999999999999</v>
       </c>
       <c r="AR23" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS23" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -3609,7 +3581,7 @@
         <v>121</v>
       </c>
       <c r="AC24" s="5">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD24" s="5">
         <v>1.0660000000000001</v>
@@ -3618,49 +3590,49 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF24" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AG24">
         <v>105</v>
       </c>
       <c r="AH24" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI24" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="AJ24" s="6">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AK24" s="5">
         <v>1.246</v>
       </c>
       <c r="AL24" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AM24" s="4">
-        <v>96.140000000000001</v>
+        <v>96.14</v>
       </c>
       <c r="AN24" s="6">
-        <v>20.300000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="AO24" s="6">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AP24" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ24" s="5">
         <v>1.1930000000000001</v>
       </c>
       <c r="AR24" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS24" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -3737,7 +3709,7 @@
         <v>123</v>
       </c>
       <c r="AC25" s="4">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AD25" s="5">
         <v>1.1160000000000001</v>
@@ -3746,7 +3718,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF25" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG25">
         <v>110</v>
@@ -3755,16 +3727,16 @@
         <v>1</v>
       </c>
       <c r="AI25" s="6">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AJ25" s="6">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AK25" s="4">
-        <v>1.3300000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AL25" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM25" s="5">
         <v>83.605000000000004</v>
@@ -3779,13 +3751,13 @@
         <v>1.3140000000000001</v>
       </c>
       <c r="AR25" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS25" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -3862,7 +3834,7 @@
         <v>125</v>
       </c>
       <c r="AC26" s="5">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AD26" s="4">
         <v>1.03</v>
@@ -3880,7 +3852,7 @@
         <v>1.2</v>
       </c>
       <c r="AI26" s="6">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AJ26" s="6">
         <v>9.8000000000000007</v>
@@ -3889,7 +3861,7 @@
         <v>1.272</v>
       </c>
       <c r="AL26" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM26" s="5">
         <v>128.60400000000001</v>
@@ -3904,13 +3876,13 @@
         <v>1.196</v>
       </c>
       <c r="AR26" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS26" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -3987,16 +3959,16 @@
         <v>127</v>
       </c>
       <c r="AC27" s="5">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD27" s="5">
         <v>1.0489999999999999</v>
       </c>
       <c r="AE27" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF27" s="6">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AG27">
         <v>114</v>
@@ -4005,7 +3977,7 @@
         <v>1.3</v>
       </c>
       <c r="AI27" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AJ27" s="6">
         <v>10.5</v>
@@ -4014,28 +3986,28 @@
         <v>1.238</v>
       </c>
       <c r="AL27" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AM27" s="5">
         <v>34.261000000000003</v>
       </c>
       <c r="AN27" s="6">
-        <v>21.199999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="AP27" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ27" s="5">
         <v>1.179</v>
       </c>
       <c r="AR27" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS27" s="6">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -4112,7 +4084,7 @@
         <v>129</v>
       </c>
       <c r="AC28" s="5">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD28" s="5">
         <v>0.92100000000000004</v>
@@ -4121,7 +4093,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF28" s="6">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG28">
         <v>109</v>
@@ -4139,13 +4111,13 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="AL28" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM28" s="4">
-        <v>98.670000000000002</v>
+        <v>98.67</v>
       </c>
       <c r="AN28" s="6">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -4154,13 +4126,13 @@
         <v>1.1830000000000001</v>
       </c>
       <c r="AR28" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS28" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -4237,16 +4209,16 @@
         <v>131</v>
       </c>
       <c r="AC29" s="5">
-        <v>0.073999999999999996</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AD29" s="5">
         <v>0.84699999999999998</v>
       </c>
       <c r="AE29" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF29" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG29">
         <v>110</v>
@@ -4255,10 +4227,10 @@
         <v>1.5</v>
       </c>
       <c r="AI29" s="6">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AJ29" s="6">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AK29" s="5">
         <v>1.1839999999999999</v>
@@ -4276,19 +4248,19 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AP29" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ29" s="5">
         <v>1.135</v>
       </c>
       <c r="AR29" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS29" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -4365,7 +4337,7 @@
         <v>133</v>
       </c>
       <c r="AC30" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD30" s="5">
         <v>0.95599999999999996</v>
@@ -4374,7 +4346,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF30" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG30">
         <v>109</v>
@@ -4383,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="6">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AJ30" s="6">
         <v>10.9</v>
@@ -4392,28 +4364,28 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="AL30" s="5">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AM30" s="5">
         <v>70.558000000000007</v>
       </c>
       <c r="AN30" s="6">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AP30" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ30" s="5">
         <v>1.0660000000000001</v>
       </c>
       <c r="AR30" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS30" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -4490,16 +4462,16 @@
         <v>135</v>
       </c>
       <c r="AC31" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD31" s="5">
         <v>1.127</v>
       </c>
       <c r="AE31" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF31" s="6">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG31">
         <v>110</v>
@@ -4508,16 +4480,16 @@
         <v>1.3</v>
       </c>
       <c r="AI31" s="6">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AJ31" s="6">
         <v>10.9</v>
       </c>
       <c r="AK31" s="4">
-        <v>1.3100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="AL31" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AM31" s="5">
         <v>90.613</v>
@@ -4526,1006 +4498,21 @@
         <v>20.100000000000001</v>
       </c>
       <c r="AP31" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ31" s="4">
         <v>1.27</v>
       </c>
       <c r="AR31" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS31" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F32" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" t="s">
-        <v>70</v>
-      </c>
-      <c r="S32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T32" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" t="s">
-        <v>72</v>
-      </c>
-      <c r="V32" t="s">
-        <v>68</v>
-      </c>
-      <c r="W32" t="s">
-        <v>69</v>
-      </c>
-      <c r="X32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F33" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R33" t="s">
-        <v>70</v>
-      </c>
-      <c r="S33" t="s">
-        <v>70</v>
-      </c>
-      <c r="T33" t="s">
-        <v>71</v>
-      </c>
-      <c r="U33" t="s">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W33" t="s">
-        <v>69</v>
-      </c>
-      <c r="X33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F34" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>70</v>
-      </c>
-      <c r="R34" t="s">
-        <v>70</v>
-      </c>
-      <c r="S34" t="s">
-        <v>70</v>
-      </c>
-      <c r="T34" t="s">
-        <v>71</v>
-      </c>
-      <c r="U34" t="s">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s">
-        <v>68</v>
-      </c>
-      <c r="W34" t="s">
-        <v>69</v>
-      </c>
-      <c r="X34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="AE34" s="6">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF34" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="AG34">
-        <v>87</v>
-      </c>
-      <c r="AH34" s="6">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="AI34" s="6">
-        <v>20.300000000000001</v>
-      </c>
-      <c r="AJ34">
-        <v>9</v>
-      </c>
-      <c r="AK34" s="5">
-        <v>1.302</v>
-      </c>
-      <c r="AL34" s="5">
-        <v>0.091999999999999998</v>
-      </c>
-      <c r="AM34" s="5">
-        <v>177.47800000000001</v>
-      </c>
-      <c r="AN34" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="AO34" s="6">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="AP34" s="5">
-        <v>0.0089999999999999993</v>
-      </c>
-      <c r="AQ34" s="5">
-        <v>1.234</v>
-      </c>
-      <c r="AR34" s="5">
-        <v>0.017999999999999999</v>
-      </c>
-      <c r="AS34" s="6">
-        <v>2.1000000000000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F35" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s">
-        <v>70</v>
-      </c>
-      <c r="S35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" t="s">
-        <v>71</v>
-      </c>
-      <c r="U35" t="s">
-        <v>72</v>
-      </c>
-      <c r="V35" t="s">
-        <v>68</v>
-      </c>
-      <c r="W35" t="s">
-        <v>69</v>
-      </c>
-      <c r="X35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>0.023</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="AE35" s="6">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AF35">
-        <v>3</v>
-      </c>
-      <c r="AG35">
-        <v>83</v>
-      </c>
-      <c r="AH35" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AI35">
-        <v>17</v>
-      </c>
-      <c r="AJ35" s="6">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AK35" s="5">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="AL35" s="5">
-        <v>0.068000000000000005</v>
-      </c>
-      <c r="AM35" s="5">
-        <v>424.11799999999999</v>
-      </c>
-      <c r="AN35" s="6">
-        <v>19.800000000000001</v>
-      </c>
-      <c r="AP35" s="5">
-        <v>0.0040000000000000001</v>
-      </c>
-      <c r="AQ35" s="5">
-        <v>1.254</v>
-      </c>
-      <c r="AR35" s="5">
-        <v>0.014</v>
-      </c>
-      <c r="AS35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F36" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" t="s">
-        <v>70</v>
-      </c>
-      <c r="S36" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" t="s">
-        <v>71</v>
-      </c>
-      <c r="U36" t="s">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s">
-        <v>68</v>
-      </c>
-      <c r="W36" t="s">
-        <v>69</v>
-      </c>
-      <c r="X36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC36" s="5">
-        <v>0.019</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF36" s="6">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="AG36">
-        <v>82</v>
-      </c>
-      <c r="AH36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AI36" s="6">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AJ36" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="AL36" s="4">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AM36" s="5">
-        <v>419.92500000000001</v>
-      </c>
-      <c r="AN36" s="6">
-        <v>18.199999999999999</v>
-      </c>
-      <c r="AP36" s="5">
-        <v>0.0050000000000000001</v>
-      </c>
-      <c r="AQ36" s="5">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="AR36" s="5">
-        <v>0.014</v>
-      </c>
-      <c r="AS36" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F37" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" t="s">
-        <v>68</v>
-      </c>
-      <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" t="s">
-        <v>70</v>
-      </c>
-      <c r="S37" t="s">
-        <v>70</v>
-      </c>
-      <c r="T37" t="s">
-        <v>71</v>
-      </c>
-      <c r="U37" t="s">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s">
-        <v>68</v>
-      </c>
-      <c r="W37" t="s">
-        <v>69</v>
-      </c>
-      <c r="X37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>0.023</v>
-      </c>
-      <c r="AD37" s="4">
-        <v>0.94999999999999996</v>
-      </c>
-      <c r="AE37" s="6">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF37" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AG37">
-        <v>81</v>
-      </c>
-      <c r="AH37" s="6">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="AI37" s="6">
-        <v>21.399999999999999</v>
-      </c>
-      <c r="AJ37" s="6">
-        <v>11.300000000000001</v>
-      </c>
-      <c r="AK37" s="4">
-        <v>1.1799999999999999</v>
-      </c>
-      <c r="AL37" s="5">
-        <v>0.082000000000000003</v>
-      </c>
-      <c r="AM37" s="5">
-        <v>1267.921</v>
-      </c>
-      <c r="AN37" s="6">
-        <v>19.199999999999999</v>
-      </c>
-      <c r="AO37" s="6">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AP37" s="5">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="AQ37" s="5">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="AR37" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AS37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F38" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N38" t="s">
-        <v>68</v>
-      </c>
-      <c r="O38" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>70</v>
-      </c>
-      <c r="R38" t="s">
-        <v>70</v>
-      </c>
-      <c r="S38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T38" t="s">
-        <v>71</v>
-      </c>
-      <c r="U38" t="s">
-        <v>72</v>
-      </c>
-      <c r="V38" t="s">
-        <v>68</v>
-      </c>
-      <c r="W38" t="s">
-        <v>69</v>
-      </c>
-      <c r="X38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC38" s="5">
-        <v>0.025999999999999999</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>1.212</v>
-      </c>
-      <c r="AE38" s="6">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF38" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG38">
-        <v>81</v>
-      </c>
-      <c r="AH38" s="6">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="AI38" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="AJ38" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>1.431</v>
-      </c>
-      <c r="AL38" s="5">
-        <v>0.058999999999999997</v>
-      </c>
-      <c r="AM38" s="5">
-        <v>262.12200000000001</v>
-      </c>
-      <c r="AN38" s="6">
-        <v>17.199999999999999</v>
-      </c>
-      <c r="AP38" s="5">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="AQ38" s="6">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AR38" s="5">
-        <v>0.019</v>
-      </c>
-      <c r="AS38" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F39" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" t="s">
-        <v>67</v>
-      </c>
-      <c r="N39" t="s">
-        <v>68</v>
-      </c>
-      <c r="O39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>70</v>
-      </c>
-      <c r="R39" t="s">
-        <v>70</v>
-      </c>
-      <c r="S39" t="s">
-        <v>70</v>
-      </c>
-      <c r="T39" t="s">
-        <v>71</v>
-      </c>
-      <c r="U39" t="s">
-        <v>72</v>
-      </c>
-      <c r="V39" t="s">
-        <v>68</v>
-      </c>
-      <c r="W39" t="s">
-        <v>69</v>
-      </c>
-      <c r="X39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC39" s="5">
-        <v>0.0060000000000000001</v>
-      </c>
-      <c r="AD39" s="4">
-        <v>1.1699999999999999</v>
-      </c>
-      <c r="AE39" s="6">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AF39" s="6">
-        <v>2.8999999999999999</v>
-      </c>
-      <c r="AG39">
-        <v>79</v>
-      </c>
-      <c r="AH39" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AI39" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AJ39" s="6">
-        <v>11.6</v>
-      </c>
-      <c r="AK39" s="4">
-        <v>1.6899999999999999</v>
-      </c>
-      <c r="AL39" s="5">
-        <v>0.048000000000000001</v>
-      </c>
-      <c r="AM39" s="5">
-        <v>240.21600000000001</v>
-      </c>
-      <c r="AN39" s="6">
-        <v>17.300000000000001</v>
-      </c>
-      <c r="AP39" s="5">
-        <v>0.0050000000000000001</v>
-      </c>
-      <c r="AQ39" s="5">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="AR39" s="5">
-        <v>0.012</v>
-      </c>
-      <c r="AS39" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="2">
-        <v>37.843249999999998</v>
-      </c>
-      <c r="F40" s="3">
-        <v>127.554638</v>
-      </c>
-      <c r="G40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" t="s">
-        <v>67</v>
-      </c>
-      <c r="N40" t="s">
-        <v>68</v>
-      </c>
-      <c r="O40" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>70</v>
-      </c>
-      <c r="R40" t="s">
-        <v>70</v>
-      </c>
-      <c r="S40" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s">
-        <v>71</v>
-      </c>
-      <c r="U40" t="s">
-        <v>72</v>
-      </c>
-      <c r="V40" t="s">
-        <v>68</v>
-      </c>
-      <c r="W40" t="s">
-        <v>69</v>
-      </c>
-      <c r="X40" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>